--- a/openxlsx/BeispielTabellen_Kategorie.xlsx
+++ b/openxlsx/BeispielTabellen_Kategorie.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -11,12 +11,13 @@
     <sheet name="F1_03" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="F2_01" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="F2_02" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="double-header" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">1.1) ... Frage ...</t>
   </si>
@@ -157,12 +158,24 @@
   </si>
   <si>
     <t xml:space="preserve">Antwort F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kategorie 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kategorie 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
@@ -193,15 +206,20 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -222,11 +240,35 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -237,6 +279,15 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,10 +574,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -909,10 +960,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -1885,10 +1936,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -2347,10 +2398,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -2805,10 +2856,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -3512,4 +3563,371 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="2" max="2" width="12.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="11"/>
+      <c r="C1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>47</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" t="n">
+        <v>24</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="M7" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="n">
+        <v>138</v>
+      </c>
+      <c r="D9" t="n">
+        <v>253</v>
+      </c>
+      <c r="E9" t="n">
+        <v>187</v>
+      </c>
+      <c r="F9" t="n">
+        <v>103</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>96</v>
+      </c>
+      <c r="I9" t="n">
+        <v>99</v>
+      </c>
+      <c r="J9" t="n">
+        <v>215</v>
+      </c>
+      <c r="K9" t="n">
+        <v>56</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <v>126</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>164</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>295</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>261</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>201</v>
+      </c>
+      <c r="G10" s="14" t="n">
+        <v>89</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>108</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>107</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>357</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="L10" s="14" t="n">
+        <v>159</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>